--- a/input/input.xlsx
+++ b/input/input.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work_space\parking\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6555E329-0FC2-4F1C-9056-A7122313481A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E5EF19C-58DF-4E98-980E-7CC491A05905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{ABCA8611-935D-4F88-BA85-285AA35906B2}"/>
   </bookViews>
   <sheets>
-    <sheet name="固定" sheetId="1" r:id="rId1"/>
-    <sheet name="临勤" sheetId="2" r:id="rId2"/>
+    <sheet name="Area-1" sheetId="1" r:id="rId1"/>
+    <sheet name="Area-1L" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -528,7 +528,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -732,7 +732,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
